--- a/va_facility_data_2025-02-20/Vincennes VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Vincennes%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Vincennes VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Vincennes%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R28c8f2bd68844fab9556881db5b5af40"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbcfbd8ded5f94dd4817d4010f3ec0aac"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R930e8d100ff8457487961716db0d385f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4acc49cb3ff74df8a193cc8aa6c55d7e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf646456430e64c4a8eac08b8dbd0fd9c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R414027cb6ed14dc4b73a6ba3476e1215"/>
   </x:sheets>
 </x:workbook>
 </file>
